--- a/biology/Botanique/Distillerie_de_La_Tour/Distillerie_de_La_Tour.xlsx
+++ b/biology/Botanique/Distillerie_de_La_Tour/Distillerie_de_La_Tour.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Distillerie de La Tour est une entreprise, créée par Jean-Michel Naud, oenologue charentais basée à Pons en Charente-Maritime, spécialisée dans la production de vins et de spiritueux[1].
+La Distillerie de La Tour est une entreprise, créée par Jean-Michel Naud, oenologue charentais basée à Pons en Charente-Maritime, spécialisée dans la production de vins et de spiritueux.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>L’expertise en vins et spiritueux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 1989, la Distillerie de la Tour s'affirme comme un spécialiste de l’exploitation complète de la production viticole régionale charentaise : vin, eau-de-vie de vin, brandy, cognac et vodka... et donc permettant à la filière viticole de ne pas dépendre exclusivement du cognac[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 1989, la Distillerie de la Tour s'affirme comme un spécialiste de l’exploitation complète de la production viticole régionale charentaise : vin, eau-de-vie de vin, brandy, cognac et vodka... et donc permettant à la filière viticole de ne pas dépendre exclusivement du cognac.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Regroupement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'entreprise engage en 2019 un investissement de 20 millions d'euros pour 20 000 m2 de chais à Merpins en Charente qui permettra d'éviter une dispersion sur une quinzaine de sites[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'entreprise engage en 2019 un investissement de 20 millions d'euros pour 20 000 m2 de chais à Merpins en Charente qui permettra d'éviter une dispersion sur une quinzaine de sites.
 </t>
         </is>
       </c>
